--- a/biology/Botanique/Lac_Usborne/Lac_Usborne.xlsx
+++ b/biology/Botanique/Lac_Usborne/Lac_Usborne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lac et le dépôt forestier Usborne sont situés à 45 km au nord de Fort-Coulonge, Québec, Canada, dans la municipalité de Lac-Nilgaut. 
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lac est en fait l'élargissement du ruisseau John-Bull, avant que celui-ci se déverse dans la rivière Coulonge-est.
 </t>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le toponyme provient d'un des membres de la famille Usborne, entrepreneurs forestiers de la première moitié du XIXe siècle, Henry, né en 1811 ou George William, né en 1796, commerçants à Québec. Les deux possédaient des installations de stockage et de transformation du bois à Arnprior, Ontario et à Portage-du-Fort, Québec. L'installation du dépôt forestier et d'une scierie à Fort-Coulonge daterait de 1878 [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le toponyme provient d'un des membres de la famille Usborne, entrepreneurs forestiers de la première moitié du XIXe siècle, Henry, né en 1811 ou George William, né en 1796, commerçants à Québec. Les deux possédaient des installations de stockage et de transformation du bois à Arnprior, Ontario et à Portage-du-Fort, Québec. L'installation du dépôt forestier et d'une scierie à Fort-Coulonge daterait de 1878 .
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Histoire du Pontiac
 MRC Pontiac
@@ -607,7 +625,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lac Usborne sur le site de la commission de toponymie du Québec
 </t>
